--- a/makurodatabases/对GDP增长的拉动.xlsx
+++ b/makurodatabases/对GDP增长的拉动.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\13631\Desktop\宏观经济学图库\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\gitwork\makurodatabases\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{4C12A2FB-5D28-43BD-AF12-D00509B24112}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D6DAB994-03AF-4155-9F64-487192E77158}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="22695" windowHeight="14595" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -145,14 +145,14 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -161,6 +161,12 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <mruColors>
+      <color rgb="FFF4A294"/>
+      <color rgb="FFEB5B43"/>
+    </mruColors>
+  </colors>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -200,21 +206,30 @@
                     <a:lumMod val="50000"/>
                   </a:schemeClr>
                 </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
+                <a:latin typeface="微软雅黑" panose="020B0503020204020204" pitchFamily="34" charset="-122"/>
+                <a:ea typeface="微软雅黑" panose="020B0503020204020204" pitchFamily="34" charset="-122"/>
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
             <a:r>
-              <a:rPr lang="zh-CN" altLang="en-US"/>
+              <a:rPr lang="zh-CN" altLang="en-US">
+                <a:latin typeface="微软雅黑" panose="020B0503020204020204" pitchFamily="34" charset="-122"/>
+                <a:ea typeface="微软雅黑" panose="020B0503020204020204" pitchFamily="34" charset="-122"/>
+              </a:rPr>
               <a:t>对</a:t>
             </a:r>
             <a:r>
-              <a:rPr lang="en-US" altLang="zh-CN"/>
+              <a:rPr lang="en-US" altLang="zh-CN">
+                <a:latin typeface="微软雅黑" panose="020B0503020204020204" pitchFamily="34" charset="-122"/>
+                <a:ea typeface="微软雅黑" panose="020B0503020204020204" pitchFamily="34" charset="-122"/>
+              </a:rPr>
               <a:t>GDP</a:t>
             </a:r>
             <a:r>
-              <a:rPr lang="zh-CN" altLang="en-US"/>
+              <a:rPr lang="zh-CN" altLang="en-US">
+                <a:latin typeface="微软雅黑" panose="020B0503020204020204" pitchFamily="34" charset="-122"/>
+                <a:ea typeface="微软雅黑" panose="020B0503020204020204" pitchFamily="34" charset="-122"/>
+              </a:rPr>
               <a:t>增长的拉动</a:t>
             </a:r>
           </a:p>
@@ -239,8 +254,8 @@
                   <a:lumMod val="50000"/>
                 </a:schemeClr>
               </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
+              <a:latin typeface="微软雅黑" panose="020B0503020204020204" pitchFamily="34" charset="-122"/>
+              <a:ea typeface="微软雅黑" panose="020B0503020204020204" pitchFamily="34" charset="-122"/>
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
@@ -912,14 +927,14 @@
         <a:lstStyle/>
         <a:p>
           <a:pPr>
-            <a:defRPr sz="900" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
               <a:solidFill>
                 <a:schemeClr val="accent5">
                   <a:lumMod val="50000"/>
                 </a:schemeClr>
               </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
+              <a:latin typeface="微软雅黑" panose="020B0503020204020204" pitchFamily="34" charset="-122"/>
+              <a:ea typeface="微软雅黑" panose="020B0503020204020204" pitchFamily="34" charset="-122"/>
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
@@ -933,14 +948,15 @@
   </c:chart>
   <c:spPr>
     <a:solidFill>
-      <a:schemeClr val="bg1"/>
+      <a:sysClr val="window" lastClr="FFFFFF">
+        <a:lumMod val="95000"/>
+      </a:sysClr>
     </a:solidFill>
     <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
       <a:solidFill>
-        <a:schemeClr val="tx2">
-          <a:lumMod val="15000"/>
-          <a:lumOff val="85000"/>
-        </a:schemeClr>
+        <a:sysClr val="window" lastClr="FFFFFF">
+          <a:lumMod val="85000"/>
+        </a:sysClr>
       </a:solidFill>
       <a:round/>
     </a:ln>
@@ -1448,16 +1464,16 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>171451</xdr:colOff>
-      <xdr:row>2</xdr:row>
-      <xdr:rowOff>33344</xdr:rowOff>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>100012</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>19050</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>13</xdr:col>
-      <xdr:colOff>242887</xdr:colOff>
-      <xdr:row>31</xdr:row>
-      <xdr:rowOff>100013</xdr:rowOff>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>390524</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>166689</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -2070,9 +2086,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:D48"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B1" sqref="B1"/>
+      <selection pane="bottomLeft" activeCell="M34" sqref="M34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.9" x14ac:dyDescent="0.4"/>
@@ -2086,18 +2102,18 @@
       <c r="A1" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="B1" s="5" t="s">
+      <c r="B1" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="C1" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="D1" s="5" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A2" s="4">
+      <c r="A2" s="2">
         <v>1978</v>
       </c>
       <c r="B2">
@@ -2111,7 +2127,7 @@
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A3" s="4">
+      <c r="A3" s="2">
         <v>1979</v>
       </c>
       <c r="B3">
@@ -2125,7 +2141,7 @@
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A4" s="4">
+      <c r="A4" s="2">
         <v>1980</v>
       </c>
       <c r="B4">
@@ -2139,7 +2155,7 @@
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A5" s="4">
+      <c r="A5" s="2">
         <v>1981</v>
       </c>
       <c r="B5">
@@ -2153,7 +2169,7 @@
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A6" s="4">
+      <c r="A6" s="2">
         <v>1982</v>
       </c>
       <c r="B6">
@@ -2167,7 +2183,7 @@
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A7" s="4">
+      <c r="A7" s="2">
         <v>1983</v>
       </c>
       <c r="B7">
@@ -2181,7 +2197,7 @@
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A8" s="4">
+      <c r="A8" s="2">
         <v>1984</v>
       </c>
       <c r="B8">
@@ -2195,7 +2211,7 @@
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A9" s="4">
+      <c r="A9" s="2">
         <v>1985</v>
       </c>
       <c r="B9">
@@ -2209,7 +2225,7 @@
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A10" s="4">
+      <c r="A10" s="2">
         <v>1986</v>
       </c>
       <c r="B10">
@@ -2223,7 +2239,7 @@
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A11" s="4">
+      <c r="A11" s="2">
         <v>1987</v>
       </c>
       <c r="B11">
@@ -2237,7 +2253,7 @@
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A12" s="4">
+      <c r="A12" s="2">
         <v>1988</v>
       </c>
       <c r="B12">
@@ -2251,7 +2267,7 @@
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A13" s="4">
+      <c r="A13" s="2">
         <v>1989</v>
       </c>
       <c r="B13">
@@ -2265,7 +2281,7 @@
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A14" s="4">
+      <c r="A14" s="2">
         <v>1990</v>
       </c>
       <c r="B14">
@@ -2279,7 +2295,7 @@
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A15" s="4">
+      <c r="A15" s="2">
         <v>1991</v>
       </c>
       <c r="B15">
@@ -2293,7 +2309,7 @@
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A16" s="4">
+      <c r="A16" s="2">
         <v>1992</v>
       </c>
       <c r="B16">
@@ -2307,7 +2323,7 @@
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A17" s="4">
+      <c r="A17" s="2">
         <v>1993</v>
       </c>
       <c r="B17">
@@ -2321,7 +2337,7 @@
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A18" s="4">
+      <c r="A18" s="2">
         <v>1994</v>
       </c>
       <c r="B18">
@@ -2335,7 +2351,7 @@
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A19" s="4">
+      <c r="A19" s="2">
         <v>1995</v>
       </c>
       <c r="B19">
@@ -2349,7 +2365,7 @@
       </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A20" s="4">
+      <c r="A20" s="2">
         <v>1996</v>
       </c>
       <c r="B20">
@@ -2363,7 +2379,7 @@
       </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A21" s="4">
+      <c r="A21" s="2">
         <v>1997</v>
       </c>
       <c r="B21">
@@ -2377,7 +2393,7 @@
       </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A22" s="4">
+      <c r="A22" s="2">
         <v>1998</v>
       </c>
       <c r="B22">
@@ -2391,7 +2407,7 @@
       </c>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A23" s="4">
+      <c r="A23" s="2">
         <v>1999</v>
       </c>
       <c r="B23">
@@ -2405,7 +2421,7 @@
       </c>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A24" s="4">
+      <c r="A24" s="2">
         <v>2000</v>
       </c>
       <c r="B24">
@@ -2419,7 +2435,7 @@
       </c>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A25" s="4">
+      <c r="A25" s="2">
         <v>2001</v>
       </c>
       <c r="B25">
@@ -2433,7 +2449,7 @@
       </c>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A26" s="4">
+      <c r="A26" s="2">
         <v>2002</v>
       </c>
       <c r="B26">
@@ -2447,7 +2463,7 @@
       </c>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A27" s="4">
+      <c r="A27" s="2">
         <v>2003</v>
       </c>
       <c r="B27">
@@ -2461,7 +2477,7 @@
       </c>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A28" s="4">
+      <c r="A28" s="2">
         <v>2004</v>
       </c>
       <c r="B28">
@@ -2475,7 +2491,7 @@
       </c>
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A29" s="4">
+      <c r="A29" s="2">
         <v>2005</v>
       </c>
       <c r="B29">
@@ -2489,7 +2505,7 @@
       </c>
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A30" s="4">
+      <c r="A30" s="2">
         <v>2006</v>
       </c>
       <c r="B30">
@@ -2503,7 +2519,7 @@
       </c>
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A31" s="4">
+      <c r="A31" s="2">
         <v>2007</v>
       </c>
       <c r="B31">
@@ -2517,7 +2533,7 @@
       </c>
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A32" s="4">
+      <c r="A32" s="2">
         <v>2008</v>
       </c>
       <c r="B32">
@@ -2531,7 +2547,7 @@
       </c>
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A33" s="4">
+      <c r="A33" s="2">
         <v>2009</v>
       </c>
       <c r="B33">
@@ -2545,7 +2561,7 @@
       </c>
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A34" s="4">
+      <c r="A34" s="2">
         <v>2010</v>
       </c>
       <c r="B34">
@@ -2559,7 +2575,7 @@
       </c>
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A35" s="4">
+      <c r="A35" s="2">
         <v>2011</v>
       </c>
       <c r="B35">
@@ -2573,7 +2589,7 @@
       </c>
     </row>
     <row r="36" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A36" s="4">
+      <c r="A36" s="2">
         <v>2012</v>
       </c>
       <c r="B36">
@@ -2587,7 +2603,7 @@
       </c>
     </row>
     <row r="37" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A37" s="4">
+      <c r="A37" s="2">
         <v>2013</v>
       </c>
       <c r="B37">
@@ -2601,7 +2617,7 @@
       </c>
     </row>
     <row r="38" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A38" s="4">
+      <c r="A38" s="2">
         <v>2014</v>
       </c>
       <c r="B38">
@@ -2615,7 +2631,7 @@
       </c>
     </row>
     <row r="39" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A39" s="4">
+      <c r="A39" s="2">
         <v>2015</v>
       </c>
       <c r="B39">
@@ -2629,7 +2645,7 @@
       </c>
     </row>
     <row r="40" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A40" s="4">
+      <c r="A40" s="2">
         <v>2016</v>
       </c>
       <c r="B40">
@@ -2643,7 +2659,7 @@
       </c>
     </row>
     <row r="41" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A41" s="4">
+      <c r="A41" s="2">
         <v>2017</v>
       </c>
       <c r="B41">
@@ -2657,7 +2673,7 @@
       </c>
     </row>
     <row r="42" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A42" s="4">
+      <c r="A42" s="2">
         <v>2018</v>
       </c>
       <c r="B42">
